--- a/Code/Results/Cases/Case_7_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_40/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032495964747464</v>
+        <v>1.048234829907402</v>
       </c>
       <c r="D2">
-        <v>1.046774518583016</v>
+        <v>1.061257640553933</v>
       </c>
       <c r="E2">
-        <v>1.043085907058309</v>
+        <v>1.057221089583959</v>
       </c>
       <c r="F2">
-        <v>1.052159243879207</v>
+        <v>1.066902294920526</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054094718438126</v>
+        <v>1.064471665183143</v>
       </c>
       <c r="J2">
-        <v>1.053746343465078</v>
+        <v>1.06906270394682</v>
       </c>
       <c r="K2">
-        <v>1.057618515337256</v>
+        <v>1.071924763633454</v>
       </c>
       <c r="L2">
-        <v>1.053975928815432</v>
+        <v>1.067936903566516</v>
       </c>
       <c r="M2">
-        <v>1.062936772974066</v>
+        <v>1.077502094954816</v>
       </c>
       <c r="N2">
-        <v>1.055242784139193</v>
+        <v>1.070580895609631</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040079752247669</v>
+        <v>1.05430478976026</v>
       </c>
       <c r="D3">
-        <v>1.052768229201277</v>
+        <v>1.066117954030481</v>
       </c>
       <c r="E3">
-        <v>1.04958001239398</v>
+        <v>1.062397531060038</v>
       </c>
       <c r="F3">
-        <v>1.058891541441169</v>
+        <v>1.072347658844062</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056455187194608</v>
+        <v>1.066707033948751</v>
       </c>
       <c r="J3">
-        <v>1.059534391297348</v>
+        <v>1.07341708472049</v>
       </c>
       <c r="K3">
-        <v>1.062767677395098</v>
+        <v>1.075969365327861</v>
       </c>
       <c r="L3">
-        <v>1.059615501778695</v>
+        <v>1.072289739102418</v>
       </c>
       <c r="M3">
-        <v>1.068822517474201</v>
+        <v>1.082131534641193</v>
       </c>
       <c r="N3">
-        <v>1.061039051663283</v>
+        <v>1.074941460103453</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044845639849587</v>
+        <v>1.058138523804908</v>
       </c>
       <c r="D4">
-        <v>1.056536922871428</v>
+        <v>1.069190256291138</v>
       </c>
       <c r="E4">
-        <v>1.053666459546955</v>
+        <v>1.065671909008196</v>
       </c>
       <c r="F4">
-        <v>1.063128181148595</v>
+        <v>1.07579252780768</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057926351106321</v>
+        <v>1.068109221364941</v>
       </c>
       <c r="J4">
-        <v>1.063167822830062</v>
+        <v>1.076163527706465</v>
       </c>
       <c r="K4">
-        <v>1.065997718601863</v>
+        <v>1.078519616507857</v>
       </c>
       <c r="L4">
-        <v>1.063157609399698</v>
+        <v>1.075037433566791</v>
       </c>
       <c r="M4">
-        <v>1.072520034118038</v>
+        <v>1.085054801759913</v>
       </c>
       <c r="N4">
-        <v>1.064677643085534</v>
+        <v>1.07769180335349</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046817247017826</v>
+        <v>1.059728741961294</v>
       </c>
       <c r="D5">
-        <v>1.058096393297326</v>
+        <v>1.070465189888133</v>
       </c>
       <c r="E5">
-        <v>1.055358184716206</v>
+        <v>1.067031247068388</v>
       </c>
       <c r="F5">
-        <v>1.064882157444434</v>
+        <v>1.077222739503207</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05853196482279</v>
+        <v>1.068688485783488</v>
       </c>
       <c r="J5">
-        <v>1.064669929257906</v>
+        <v>1.077301799455421</v>
       </c>
       <c r="K5">
-        <v>1.067332477578347</v>
+        <v>1.079576373004631</v>
       </c>
       <c r="L5">
-        <v>1.064622402318963</v>
+        <v>1.076176753269628</v>
       </c>
       <c r="M5">
-        <v>1.074049281335904</v>
+        <v>1.086267154688395</v>
       </c>
       <c r="N5">
-        <v>1.066181882676801</v>
+        <v>1.078831691578891</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04714646503693</v>
+        <v>1.059994514806267</v>
       </c>
       <c r="D6">
-        <v>1.058356813293049</v>
+        <v>1.070678300130271</v>
       </c>
       <c r="E6">
-        <v>1.055640736141247</v>
+        <v>1.067258498321169</v>
       </c>
       <c r="F6">
-        <v>1.065175110361907</v>
+        <v>1.077461844961561</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058632912118424</v>
+        <v>1.068785158336254</v>
       </c>
       <c r="J6">
-        <v>1.064920688897522</v>
+        <v>1.077491981960404</v>
       </c>
       <c r="K6">
-        <v>1.067555265694594</v>
+        <v>1.079752923721028</v>
       </c>
       <c r="L6">
-        <v>1.064866958542433</v>
+        <v>1.076367141856569</v>
       </c>
       <c r="M6">
-        <v>1.074304609500012</v>
+        <v>1.086469761358555</v>
       </c>
       <c r="N6">
-        <v>1.066432998423867</v>
+        <v>1.079022144164845</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044872107838247</v>
+        <v>1.058159855511258</v>
       </c>
       <c r="D7">
-        <v>1.05655785666833</v>
+        <v>1.069207356555584</v>
       </c>
       <c r="E7">
-        <v>1.053689165613254</v>
+        <v>1.065690139184876</v>
       </c>
       <c r="F7">
-        <v>1.063151722448251</v>
+        <v>1.075811708094431</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057934493139697</v>
+        <v>1.068117001180897</v>
       </c>
       <c r="J7">
-        <v>1.063187992061856</v>
+        <v>1.076178800636719</v>
       </c>
       <c r="K7">
-        <v>1.066015643135977</v>
+        <v>1.078533796510539</v>
       </c>
       <c r="L7">
-        <v>1.063177275879425</v>
+        <v>1.075052718471142</v>
       </c>
       <c r="M7">
-        <v>1.072540565233274</v>
+        <v>1.085071065543631</v>
       </c>
       <c r="N7">
-        <v>1.064697840959951</v>
+        <v>1.077707097973057</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035089375645781</v>
+        <v>1.050306277044536</v>
       </c>
       <c r="D8">
-        <v>1.048823676034796</v>
+        <v>1.062915701716283</v>
       </c>
       <c r="E8">
-        <v>1.04530549789289</v>
+        <v>1.058986529632423</v>
       </c>
       <c r="F8">
-        <v>1.054460179996971</v>
+        <v>1.06875937341017</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054904463816398</v>
+        <v>1.065236514771768</v>
       </c>
       <c r="J8">
-        <v>1.055726463474932</v>
+        <v>1.07054944925893</v>
       </c>
       <c r="K8">
-        <v>1.059380547979651</v>
+        <v>1.073305902084804</v>
       </c>
       <c r="L8">
-        <v>1.055904851162772</v>
+        <v>1.06942264975972</v>
       </c>
       <c r="M8">
-        <v>1.064949724555275</v>
+        <v>1.079082050575303</v>
       </c>
       <c r="N8">
-        <v>1.057225716146585</v>
+        <v>1.072069752270616</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016675928694202</v>
+        <v>1.035699104760194</v>
       </c>
       <c r="D9">
-        <v>1.034287973658191</v>
+        <v>1.05123734076333</v>
       </c>
       <c r="E9">
-        <v>1.029573317771606</v>
+        <v>1.046561046839296</v>
       </c>
       <c r="F9">
-        <v>1.038152785530951</v>
+        <v>1.055690409269459</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049105090298406</v>
+        <v>1.059803582385294</v>
       </c>
       <c r="J9">
-        <v>1.041653254513181</v>
+        <v>1.06005129310707</v>
       </c>
       <c r="K9">
-        <v>1.04684821133454</v>
+        <v>1.063550437691098</v>
       </c>
       <c r="L9">
-        <v>1.042204141871719</v>
+        <v>1.058941316041078</v>
       </c>
       <c r="M9">
-        <v>1.050655767827857</v>
+        <v>1.06794023970302</v>
       </c>
       <c r="N9">
-        <v>1.043132521613888</v>
+        <v>1.061556687532865</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003464641141462</v>
+        <v>1.025370240157249</v>
       </c>
       <c r="D10">
-        <v>1.023881982194039</v>
+        <v>1.043000327935226</v>
       </c>
       <c r="E10">
-        <v>1.018325617141265</v>
+        <v>1.037808332206807</v>
       </c>
       <c r="F10">
-        <v>1.02649559565819</v>
+        <v>1.046486139252128</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04488321707399</v>
+        <v>1.05591368223818</v>
       </c>
       <c r="J10">
-        <v>1.031541468732776</v>
+        <v>1.052612221862629</v>
       </c>
       <c r="K10">
-        <v>1.037833024871354</v>
+        <v>1.056634302181957</v>
       </c>
       <c r="L10">
-        <v>1.032371696475479</v>
+        <v>1.051526927402689</v>
       </c>
       <c r="M10">
-        <v>1.04040239380651</v>
+        <v>1.060063904843504</v>
       </c>
       <c r="N10">
-        <v>1.033006375937838</v>
+        <v>1.054107051953983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9974839253240637</v>
+        <v>1.020738994951812</v>
       </c>
       <c r="D11">
-        <v>1.01917880263779</v>
+        <v>1.039313143888412</v>
       </c>
       <c r="E11">
-        <v>1.013245128748491</v>
+        <v>1.033892822051771</v>
       </c>
       <c r="F11">
-        <v>1.021230574812702</v>
+        <v>1.04236897782509</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042958670231207</v>
+        <v>1.054158805697182</v>
       </c>
       <c r="J11">
-        <v>1.026961751847353</v>
+        <v>1.04927375293025</v>
       </c>
       <c r="K11">
-        <v>1.033747876870595</v>
+        <v>1.053529895081605</v>
       </c>
       <c r="L11">
-        <v>1.027921510619726</v>
+        <v>1.048202675111014</v>
       </c>
       <c r="M11">
-        <v>1.035762920454045</v>
+        <v>1.056533791477671</v>
       </c>
       <c r="N11">
-        <v>1.028420155329136</v>
+        <v>1.050763842012793</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9952195730448414</v>
+        <v>1.018993124119045</v>
       </c>
       <c r="D12">
-        <v>1.017399478890322</v>
+        <v>1.037924189315197</v>
       </c>
       <c r="E12">
-        <v>1.011323489794546</v>
+        <v>1.032418222388341</v>
       </c>
       <c r="F12">
-        <v>1.01923920441377</v>
+        <v>1.040818482850988</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042228130097437</v>
+        <v>1.053495712955375</v>
       </c>
       <c r="J12">
-        <v>1.025227636172974</v>
+        <v>1.048014858684071</v>
       </c>
       <c r="K12">
-        <v>1.032200755526414</v>
+        <v>1.052359185633838</v>
       </c>
       <c r="L12">
-        <v>1.026236918175964</v>
+        <v>1.046949623979907</v>
       </c>
       <c r="M12">
-        <v>1.034006866289277</v>
+        <v>1.055203331316015</v>
       </c>
       <c r="N12">
-        <v>1.026683577011593</v>
+        <v>1.049503159992387</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9957072891789414</v>
+        <v>1.019368808928579</v>
       </c>
       <c r="D13">
-        <v>1.017782661264054</v>
+        <v>1.03822302296486</v>
       </c>
       <c r="E13">
-        <v>1.011737301419628</v>
+        <v>1.032735466335368</v>
       </c>
       <c r="F13">
-        <v>1.019668029223251</v>
+        <v>1.041152052783446</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042385563632865</v>
+        <v>1.053638469089596</v>
       </c>
       <c r="J13">
-        <v>1.025601151842214</v>
+        <v>1.048285769017746</v>
       </c>
       <c r="K13">
-        <v>1.032534005730786</v>
+        <v>1.052611122064552</v>
       </c>
       <c r="L13">
-        <v>1.026599745019906</v>
+        <v>1.047219254938251</v>
       </c>
       <c r="M13">
-        <v>1.034385075730226</v>
+        <v>1.055489610582953</v>
       </c>
       <c r="N13">
-        <v>1.027057623115926</v>
+        <v>1.049774455049809</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9972976508943528</v>
+        <v>1.020595214183247</v>
       </c>
       <c r="D14">
-        <v>1.019032400092146</v>
+        <v>1.039198735360282</v>
       </c>
       <c r="E14">
-        <v>1.013087008047742</v>
+        <v>1.033771351588708</v>
       </c>
       <c r="F14">
-        <v>1.021066714964005</v>
+        <v>1.042241254535837</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04289861078942</v>
+        <v>1.054104227836855</v>
       </c>
       <c r="J14">
-        <v>1.026819099897029</v>
+        <v>1.049170084068441</v>
       </c>
       <c r="K14">
-        <v>1.033620612793248</v>
+        <v>1.0534334896285</v>
       </c>
       <c r="L14">
-        <v>1.027782922756441</v>
+        <v>1.048099477570644</v>
       </c>
       <c r="M14">
-        <v>1.035618449644777</v>
+        <v>1.056424214926479</v>
       </c>
       <c r="N14">
-        <v>1.02827730079668</v>
+        <v>1.050660025929309</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9982717263773322</v>
+        <v>1.021347392314765</v>
       </c>
       <c r="D15">
-        <v>1.019798031330925</v>
+        <v>1.039797297340483</v>
       </c>
       <c r="E15">
-        <v>1.01391393813339</v>
+        <v>1.034406874939613</v>
       </c>
       <c r="F15">
-        <v>1.021923661987159</v>
+        <v>1.042909494055817</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043212600505803</v>
+        <v>1.054389685246334</v>
       </c>
       <c r="J15">
-        <v>1.027565055453934</v>
+        <v>1.049712405212891</v>
       </c>
       <c r="K15">
-        <v>1.034286091163933</v>
+        <v>1.053937810793105</v>
       </c>
       <c r="L15">
-        <v>1.02850764588217</v>
+        <v>1.048639352791943</v>
       </c>
       <c r="M15">
-        <v>1.03637394454896</v>
+        <v>1.056997469460579</v>
       </c>
       <c r="N15">
-        <v>1.029024315696039</v>
+        <v>1.051203117231989</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003855770381626</v>
+        <v>1.025674108491399</v>
       </c>
       <c r="D16">
-        <v>1.024189736038679</v>
+        <v>1.043242389932349</v>
       </c>
       <c r="E16">
-        <v>1.018658121671682</v>
+        <v>1.038065434968511</v>
       </c>
       <c r="F16">
-        <v>1.026840186363576</v>
+        <v>1.046756489837223</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045008812896746</v>
+        <v>1.056028606976585</v>
       </c>
       <c r="J16">
-        <v>1.031840941000236</v>
+        <v>1.052831212508643</v>
       </c>
       <c r="K16">
-        <v>1.03810011673962</v>
+        <v>1.056837927750805</v>
       </c>
       <c r="L16">
-        <v>1.032662762839426</v>
+        <v>1.051745051560211</v>
       </c>
       <c r="M16">
-        <v>1.040705866603608</v>
+        <v>1.060295562851438</v>
       </c>
       <c r="N16">
-        <v>1.033306273490267</v>
+        <v>1.054326353591833</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007286338466966</v>
+        <v>1.028344439354863</v>
       </c>
       <c r="D17">
-        <v>1.026889901935945</v>
+        <v>1.045370285870646</v>
       </c>
       <c r="E17">
-        <v>1.021575792454683</v>
+        <v>1.040325834369994</v>
       </c>
       <c r="F17">
-        <v>1.029863960006889</v>
+        <v>1.049133400891349</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046108915329802</v>
+        <v>1.057037332368135</v>
       </c>
       <c r="J17">
-        <v>1.034467364609577</v>
+        <v>1.05475533028488</v>
       </c>
       <c r="K17">
-        <v>1.04044232715375</v>
+        <v>1.058626975028472</v>
       </c>
       <c r="L17">
-        <v>1.035215807803826</v>
+        <v>1.053661913178962</v>
       </c>
       <c r="M17">
-        <v>1.043367871875853</v>
+        <v>1.062331501272423</v>
       </c>
       <c r="N17">
-        <v>1.035936426922387</v>
+        <v>1.056253203836013</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.009262509756614</v>
+        <v>1.029886806194529</v>
       </c>
       <c r="D18">
-        <v>1.028446025023108</v>
+        <v>1.046599916282832</v>
       </c>
       <c r="E18">
-        <v>1.023257560808244</v>
+        <v>1.04163227286698</v>
       </c>
       <c r="F18">
-        <v>1.031606927259673</v>
+        <v>1.05050721297978</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046741368402905</v>
+        <v>1.057618947852738</v>
       </c>
       <c r="J18">
-        <v>1.035980100506174</v>
+        <v>1.055866405574563</v>
       </c>
       <c r="K18">
-        <v>1.041791166281802</v>
+        <v>1.059659994791705</v>
       </c>
       <c r="L18">
-        <v>1.03668656149031</v>
+        <v>1.054769094206898</v>
       </c>
       <c r="M18">
-        <v>1.044901509827379</v>
+        <v>1.063507579554748</v>
       </c>
       <c r="N18">
-        <v>1.03745131107747</v>
+        <v>1.057365856980049</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009932229516731</v>
+        <v>1.030410187497782</v>
       </c>
       <c r="D19">
-        <v>1.028973504293967</v>
+        <v>1.047017268441593</v>
       </c>
       <c r="E19">
-        <v>1.023827681331225</v>
+        <v>1.042075735661619</v>
       </c>
       <c r="F19">
-        <v>1.032197801062376</v>
+        <v>1.050973551188202</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0469554886682</v>
+        <v>1.05781613659521</v>
       </c>
       <c r="J19">
-        <v>1.036492724012429</v>
+        <v>1.056243383780057</v>
       </c>
       <c r="K19">
-        <v>1.042248214934402</v>
+        <v>1.060010478880562</v>
       </c>
       <c r="L19">
-        <v>1.037185005528612</v>
+        <v>1.055144800999952</v>
       </c>
       <c r="M19">
-        <v>1.045421284806135</v>
+        <v>1.063906685763185</v>
       </c>
       <c r="N19">
-        <v>1.037964662567904</v>
+        <v>1.057743370537835</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006920863982443</v>
+        <v>1.028059521722561</v>
       </c>
       <c r="D20">
-        <v>1.026602166674116</v>
+        <v>1.045143184698158</v>
       </c>
       <c r="E20">
-        <v>1.021264848946728</v>
+        <v>1.04008456692177</v>
       </c>
       <c r="F20">
-        <v>1.029541704646579</v>
+        <v>1.048879693930284</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045991846320844</v>
+        <v>1.056929809144979</v>
       </c>
       <c r="J20">
-        <v>1.034187580345977</v>
+        <v>1.054550060651402</v>
       </c>
       <c r="K20">
-        <v>1.040192839612594</v>
+        <v>1.058436121120111</v>
       </c>
       <c r="L20">
-        <v>1.034943810908531</v>
+        <v>1.053457386866054</v>
       </c>
       <c r="M20">
-        <v>1.043084254579128</v>
+        <v>1.062114257346174</v>
       </c>
       <c r="N20">
-        <v>1.035656245333042</v>
+        <v>1.05604764269611</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9968305445644795</v>
+        <v>1.020234790681982</v>
       </c>
       <c r="D21">
-        <v>1.01866529978007</v>
+        <v>1.038911957857689</v>
       </c>
       <c r="E21">
-        <v>1.012690531558085</v>
+        <v>1.033466878398615</v>
       </c>
       <c r="F21">
-        <v>1.020655849031257</v>
+        <v>1.041921108998698</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042747974277316</v>
+        <v>1.053967389741693</v>
       </c>
       <c r="J21">
-        <v>1.026461379704254</v>
+        <v>1.048910205691497</v>
       </c>
       <c r="K21">
-        <v>1.033301475617777</v>
+        <v>1.053191818071735</v>
       </c>
       <c r="L21">
-        <v>1.027435401582778</v>
+        <v>1.047840788506564</v>
       </c>
       <c r="M21">
-        <v>1.035256179585283</v>
+        <v>1.056149538400953</v>
       </c>
       <c r="N21">
-        <v>1.0279190726002</v>
+        <v>1.050399778495261</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9902362068684639</v>
+        <v>1.015165837936294</v>
       </c>
       <c r="D22">
-        <v>1.01348627973764</v>
+        <v>1.034881351180859</v>
       </c>
       <c r="E22">
-        <v>1.007098048260731</v>
+        <v>1.029188413737873</v>
       </c>
       <c r="F22">
-        <v>1.01486055545872</v>
+        <v>1.037422522436614</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040617011081807</v>
+        <v>1.052039317299155</v>
       </c>
       <c r="J22">
-        <v>1.021411005933153</v>
+        <v>1.045254524015223</v>
       </c>
       <c r="K22">
-        <v>1.028795222863371</v>
+        <v>1.049792087768733</v>
       </c>
       <c r="L22">
-        <v>1.022530190777692</v>
+        <v>1.044203001829032</v>
       </c>
       <c r="M22">
-        <v>1.030143260353615</v>
+        <v>1.052287380720414</v>
       </c>
       <c r="N22">
-        <v>1.022861526719058</v>
+        <v>1.046738905331694</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9937570944046336</v>
+        <v>1.017867766794874</v>
       </c>
       <c r="D23">
-        <v>1.016250671539326</v>
+        <v>1.037029197654654</v>
       </c>
       <c r="E23">
-        <v>1.010082913597478</v>
+        <v>1.031468145180379</v>
       </c>
       <c r="F23">
-        <v>1.017953629592467</v>
+        <v>1.039819519379306</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041755777919685</v>
+        <v>1.053067868302866</v>
       </c>
       <c r="J23">
-        <v>1.024107584266837</v>
+        <v>1.047203303217643</v>
       </c>
       <c r="K23">
-        <v>1.031201409613449</v>
+        <v>1.051604459561613</v>
       </c>
       <c r="L23">
-        <v>1.025148990313415</v>
+        <v>1.046141972623646</v>
       </c>
       <c r="M23">
-        <v>1.03287284286466</v>
+        <v>1.054345839389621</v>
       </c>
       <c r="N23">
-        <v>1.025561934503277</v>
+        <v>1.04869045202411</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007086082595928</v>
+        <v>1.028188310553741</v>
       </c>
       <c r="D24">
-        <v>1.026732239868075</v>
+        <v>1.045245837496718</v>
       </c>
       <c r="E24">
-        <v>1.021405412705917</v>
+        <v>1.040193622324755</v>
       </c>
       <c r="F24">
-        <v>1.029687381866851</v>
+        <v>1.048994372018233</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046044773165349</v>
+        <v>1.056978415093641</v>
       </c>
       <c r="J24">
-        <v>1.034314061978953</v>
+        <v>1.054642847777562</v>
       </c>
       <c r="K24">
-        <v>1.040305625675134</v>
+        <v>1.058522392155614</v>
       </c>
       <c r="L24">
-        <v>1.035066771245166</v>
+        <v>1.053549837075152</v>
       </c>
       <c r="M24">
-        <v>1.043212467739676</v>
+        <v>1.062212455817532</v>
       </c>
       <c r="N24">
-        <v>1.035782906584444</v>
+        <v>1.056140561590632</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021589479978781</v>
+        <v>1.039573697164243</v>
       </c>
       <c r="D25">
-        <v>1.038163460521865</v>
+        <v>1.054331840107326</v>
       </c>
       <c r="E25">
-        <v>1.033765157679381</v>
+        <v>1.04985153672628</v>
       </c>
       <c r="F25">
-        <v>1.042497594937922</v>
+        <v>1.059150990514278</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050663342152705</v>
+        <v>1.06125316998783</v>
       </c>
       <c r="J25">
-        <v>1.045411493919494</v>
+        <v>1.062838895571431</v>
       </c>
       <c r="K25">
-        <v>1.050196877113057</v>
+        <v>1.066141457250976</v>
       </c>
       <c r="L25">
-        <v>1.045860987023977</v>
+        <v>1.061722299509092</v>
       </c>
       <c r="M25">
-        <v>1.054470159712711</v>
+        <v>1.070895563271246</v>
       </c>
       <c r="N25">
-        <v>1.046896098151234</v>
+        <v>1.064348248712468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.048234829907402</v>
+        <v>1.02502603947546</v>
       </c>
       <c r="D2">
-        <v>1.061257640553933</v>
+        <v>1.040143686426517</v>
       </c>
       <c r="E2">
-        <v>1.057221089583959</v>
+        <v>1.036983187412831</v>
       </c>
       <c r="F2">
-        <v>1.066902294920526</v>
+        <v>1.045408288990649</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064471665183143</v>
+        <v>1.0531534893123</v>
       </c>
       <c r="J2">
-        <v>1.06906270394682</v>
+        <v>1.04648314955922</v>
       </c>
       <c r="K2">
-        <v>1.071924763633454</v>
+        <v>1.051070712022066</v>
       </c>
       <c r="L2">
-        <v>1.067936903566516</v>
+        <v>1.04795025421619</v>
       </c>
       <c r="M2">
-        <v>1.077502094954816</v>
+        <v>1.056269285816818</v>
       </c>
       <c r="N2">
-        <v>1.070580895609631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.018986736054568</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.053105647735732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05430478976026</v>
+        <v>1.029038722746829</v>
       </c>
       <c r="D3">
-        <v>1.066117954030481</v>
+        <v>1.043014313174088</v>
       </c>
       <c r="E3">
-        <v>1.062397531060038</v>
+        <v>1.040129077770302</v>
       </c>
       <c r="F3">
-        <v>1.072347658844062</v>
+        <v>1.04840439243265</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066707033948751</v>
+        <v>1.054242144041036</v>
       </c>
       <c r="J3">
-        <v>1.07341708472049</v>
+        <v>1.048767892271885</v>
       </c>
       <c r="K3">
-        <v>1.075969365327861</v>
+        <v>1.053124881545727</v>
       </c>
       <c r="L3">
-        <v>1.072289739102418</v>
+        <v>1.05027300937263</v>
       </c>
       <c r="M3">
-        <v>1.082131534641193</v>
+        <v>1.058453239827245</v>
       </c>
       <c r="N3">
-        <v>1.074941460103453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.019776596606352</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.054834069382157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.058138523804908</v>
+        <v>1.031587998983316</v>
       </c>
       <c r="D4">
-        <v>1.069190256291138</v>
+        <v>1.044841121229853</v>
       </c>
       <c r="E4">
-        <v>1.065671909008196</v>
+        <v>1.042133271917673</v>
       </c>
       <c r="F4">
-        <v>1.07579252780768</v>
+        <v>1.050314248882575</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.068109221364941</v>
+        <v>1.054925560936372</v>
       </c>
       <c r="J4">
-        <v>1.076163527706465</v>
+        <v>1.050216797925773</v>
       </c>
       <c r="K4">
-        <v>1.078519616507857</v>
+        <v>1.054426876762599</v>
       </c>
       <c r="L4">
-        <v>1.075037433566791</v>
+        <v>1.051748449201325</v>
       </c>
       <c r="M4">
-        <v>1.085054801759913</v>
+        <v>1.059841104345349</v>
       </c>
       <c r="N4">
-        <v>1.07769180335349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.020277125805404</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.055932449015719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059728741961294</v>
+        <v>1.032648756788658</v>
       </c>
       <c r="D5">
-        <v>1.070465189888133</v>
+        <v>1.04560195694945</v>
       </c>
       <c r="E5">
-        <v>1.067031247068388</v>
+        <v>1.042968526320645</v>
       </c>
       <c r="F5">
-        <v>1.077222739503207</v>
+        <v>1.051110443734359</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068688485783488</v>
+        <v>1.055207929180047</v>
       </c>
       <c r="J5">
-        <v>1.077301799455421</v>
+        <v>1.050819035142112</v>
       </c>
       <c r="K5">
-        <v>1.079576373004631</v>
+        <v>1.054967877695573</v>
       </c>
       <c r="L5">
-        <v>1.076176753269628</v>
+        <v>1.052362298046883</v>
       </c>
       <c r="M5">
-        <v>1.086267154688395</v>
+        <v>1.060418658258585</v>
       </c>
       <c r="N5">
-        <v>1.078831691578891</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.020485076835641</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.056389534559326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.059994514806267</v>
+        <v>1.032826229773809</v>
       </c>
       <c r="D6">
-        <v>1.070678300130271</v>
+        <v>1.045729290471688</v>
       </c>
       <c r="E6">
-        <v>1.067258498321169</v>
+        <v>1.043108346574692</v>
       </c>
       <c r="F6">
-        <v>1.077461844961561</v>
+        <v>1.051243740374873</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068785158336254</v>
+        <v>1.055255052925087</v>
       </c>
       <c r="J6">
-        <v>1.077491981960404</v>
+        <v>1.050919754734605</v>
       </c>
       <c r="K6">
-        <v>1.079752923721028</v>
+        <v>1.055058345592351</v>
       </c>
       <c r="L6">
-        <v>1.076367141856569</v>
+        <v>1.05246499386064</v>
       </c>
       <c r="M6">
-        <v>1.086469761358555</v>
+        <v>1.060515290188874</v>
       </c>
       <c r="N6">
-        <v>1.079022144164845</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.020519849427484</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.05646601061105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.058159855511258</v>
+        <v>1.031602215495652</v>
       </c>
       <c r="D7">
-        <v>1.069207356555584</v>
+        <v>1.044851315418331</v>
       </c>
       <c r="E7">
-        <v>1.065690139184876</v>
+        <v>1.042144461073337</v>
       </c>
       <c r="F7">
-        <v>1.075811708094431</v>
+        <v>1.05032491378913</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068117001180897</v>
+        <v>1.054929353248134</v>
       </c>
       <c r="J7">
-        <v>1.076178800636719</v>
+        <v>1.050224871867592</v>
       </c>
       <c r="K7">
-        <v>1.078533796510539</v>
+        <v>1.054434130428773</v>
       </c>
       <c r="L7">
-        <v>1.075052718471142</v>
+        <v>1.051756676513164</v>
       </c>
       <c r="M7">
-        <v>1.085071065543631</v>
+        <v>1.059848844650779</v>
       </c>
       <c r="N7">
-        <v>1.077707097973057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.020279914093697</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.055938574820912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050306277044536</v>
+        <v>1.026392127477961</v>
       </c>
       <c r="D8">
-        <v>1.062915701716283</v>
+        <v>1.041120297588938</v>
       </c>
       <c r="E8">
-        <v>1.058986529632423</v>
+        <v>1.038052988077745</v>
       </c>
       <c r="F8">
-        <v>1.06875937341017</v>
+        <v>1.046426921803689</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065236514771768</v>
+        <v>1.053525812696795</v>
       </c>
       <c r="J8">
-        <v>1.07054944925893</v>
+        <v>1.047261499170384</v>
       </c>
       <c r="K8">
-        <v>1.073305902084804</v>
+        <v>1.051770651268897</v>
       </c>
       <c r="L8">
-        <v>1.06942264975972</v>
+        <v>1.048741044647941</v>
       </c>
       <c r="M8">
-        <v>1.079082050575303</v>
+        <v>1.057012695582783</v>
       </c>
       <c r="N8">
-        <v>1.072069752270616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.019255895722635</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.053693996434335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035699104760194</v>
+        <v>1.016833722723746</v>
       </c>
       <c r="D9">
-        <v>1.05123734076333</v>
+        <v>1.034301862487156</v>
       </c>
       <c r="E9">
-        <v>1.046561046839296</v>
+        <v>1.030592883686643</v>
       </c>
       <c r="F9">
-        <v>1.055690409269459</v>
+        <v>1.03932843372554</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059803582385294</v>
+        <v>1.0508873526734</v>
       </c>
       <c r="J9">
-        <v>1.06005129310707</v>
+        <v>1.041805729054495</v>
       </c>
       <c r="K9">
-        <v>1.063550437691098</v>
+        <v>1.046861893432919</v>
       </c>
       <c r="L9">
-        <v>1.058941316041078</v>
+        <v>1.043208373485727</v>
       </c>
       <c r="M9">
-        <v>1.06794023970302</v>
+        <v>1.051814106600553</v>
       </c>
       <c r="N9">
-        <v>1.061556687532865</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.017367835259467</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.049579724097753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025370240157249</v>
+        <v>1.010262171018677</v>
       </c>
       <c r="D10">
-        <v>1.043000327935226</v>
+        <v>1.029656442735153</v>
       </c>
       <c r="E10">
-        <v>1.037808332206807</v>
+        <v>1.025522767328397</v>
       </c>
       <c r="F10">
-        <v>1.046486139252128</v>
+        <v>1.034541871299842</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05591368223818</v>
+        <v>1.049056446548617</v>
       </c>
       <c r="J10">
-        <v>1.052612221862629</v>
+        <v>1.038074465811088</v>
       </c>
       <c r="K10">
-        <v>1.056634302181957</v>
+        <v>1.04351011927913</v>
       </c>
       <c r="L10">
-        <v>1.051526927402689</v>
+        <v>1.039445999991553</v>
       </c>
       <c r="M10">
-        <v>1.060063904843504</v>
+        <v>1.048314264600437</v>
       </c>
       <c r="N10">
-        <v>1.054107051953983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.016082494526074</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.046860783425601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020738994951812</v>
+        <v>1.007986731323057</v>
       </c>
       <c r="D11">
-        <v>1.039313143888412</v>
+        <v>1.028231868885493</v>
       </c>
       <c r="E11">
-        <v>1.033892822051771</v>
+        <v>1.02398247953932</v>
       </c>
       <c r="F11">
-        <v>1.04236897782509</v>
+        <v>1.03334150322721</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054158805697182</v>
+        <v>1.048607355889442</v>
       </c>
       <c r="J11">
-        <v>1.04927375293025</v>
+        <v>1.03703098651701</v>
       </c>
       <c r="K11">
-        <v>1.053529895081605</v>
+        <v>1.042640314822231</v>
       </c>
       <c r="L11">
-        <v>1.048202675111014</v>
+        <v>1.038465863392796</v>
       </c>
       <c r="M11">
-        <v>1.056533791477671</v>
+        <v>1.047660896790468</v>
       </c>
       <c r="N11">
-        <v>1.050763842012793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.015788319036287</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.04677579234562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018993124119045</v>
+        <v>1.007387484961914</v>
       </c>
       <c r="D12">
-        <v>1.037924189315197</v>
+        <v>1.027947843662647</v>
       </c>
       <c r="E12">
-        <v>1.032418222388341</v>
+        <v>1.023680475073164</v>
       </c>
       <c r="F12">
-        <v>1.040818482850988</v>
+        <v>1.033242278373528</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053495712955375</v>
+        <v>1.04858639405332</v>
       </c>
       <c r="J12">
-        <v>1.048014858684071</v>
+        <v>1.036882450806215</v>
       </c>
       <c r="K12">
-        <v>1.052359185633838</v>
+        <v>1.042558504343129</v>
       </c>
       <c r="L12">
-        <v>1.046949623979907</v>
+        <v>1.03836763493249</v>
       </c>
       <c r="M12">
-        <v>1.055203331316015</v>
+        <v>1.047759166627946</v>
       </c>
       <c r="N12">
-        <v>1.049503159992387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.015791614317517</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.04717709289095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019368808928579</v>
+        <v>1.008040457958374</v>
       </c>
       <c r="D13">
-        <v>1.03822302296486</v>
+        <v>1.028524428998181</v>
       </c>
       <c r="E13">
-        <v>1.032735466335368</v>
+        <v>1.024313338716694</v>
       </c>
       <c r="F13">
-        <v>1.041152052783446</v>
+        <v>1.033993010210296</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053638469089596</v>
+        <v>1.048898194019934</v>
       </c>
       <c r="J13">
-        <v>1.048285769017746</v>
+        <v>1.037416995041019</v>
       </c>
       <c r="K13">
-        <v>1.052611122064552</v>
+        <v>1.043082546145456</v>
       </c>
       <c r="L13">
-        <v>1.047219254938251</v>
+        <v>1.038946579278356</v>
       </c>
       <c r="M13">
-        <v>1.055489610582953</v>
+        <v>1.048454754126417</v>
       </c>
       <c r="N13">
-        <v>1.049774455049809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.016025176857804</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.048001602126631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020595214183247</v>
+        <v>1.009062564379652</v>
       </c>
       <c r="D14">
-        <v>1.039198735360282</v>
+        <v>1.029315722885742</v>
       </c>
       <c r="E14">
-        <v>1.033771351588708</v>
+        <v>1.025177445537939</v>
       </c>
       <c r="F14">
-        <v>1.042241254535837</v>
+        <v>1.03490151614576</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054104227836855</v>
+        <v>1.049265566374898</v>
       </c>
       <c r="J14">
-        <v>1.049170084068441</v>
+        <v>1.038098252959275</v>
       </c>
       <c r="K14">
-        <v>1.0534334896285</v>
+        <v>1.043721456194857</v>
       </c>
       <c r="L14">
-        <v>1.048099477570644</v>
+        <v>1.039656042358879</v>
       </c>
       <c r="M14">
-        <v>1.056424214926479</v>
+        <v>1.049210094557773</v>
       </c>
       <c r="N14">
-        <v>1.050660025929309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.016291921092475</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.048770813907817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021347392314765</v>
+        <v>1.009586691168042</v>
       </c>
       <c r="D15">
-        <v>1.039797297340483</v>
+        <v>1.029700039834749</v>
       </c>
       <c r="E15">
-        <v>1.034406874939613</v>
+        <v>1.025596699703408</v>
       </c>
       <c r="F15">
-        <v>1.042909494055817</v>
+        <v>1.035317769893496</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054389685246334</v>
+        <v>1.049430032657232</v>
       </c>
       <c r="J15">
-        <v>1.049712405212891</v>
+        <v>1.038417309790385</v>
       </c>
       <c r="K15">
-        <v>1.053937810793105</v>
+        <v>1.044013838849908</v>
       </c>
       <c r="L15">
-        <v>1.048639352791943</v>
+        <v>1.039982182369562</v>
       </c>
       <c r="M15">
-        <v>1.056997469460579</v>
+        <v>1.049534620343183</v>
       </c>
       <c r="N15">
-        <v>1.051203117231989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01640861533059</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.049064618436692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025674108491399</v>
+        <v>1.012241430565834</v>
       </c>
       <c r="D16">
-        <v>1.043242389932349</v>
+        <v>1.031555701479946</v>
       </c>
       <c r="E16">
-        <v>1.038065434968511</v>
+        <v>1.027621312190059</v>
       </c>
       <c r="F16">
-        <v>1.046756489837223</v>
+        <v>1.037219491904083</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056028606976585</v>
+        <v>1.050157117391496</v>
       </c>
       <c r="J16">
-        <v>1.052831212508643</v>
+        <v>1.039902383219838</v>
       </c>
       <c r="K16">
-        <v>1.056837927750805</v>
+        <v>1.045342584742723</v>
       </c>
       <c r="L16">
-        <v>1.051745051560211</v>
+        <v>1.041473875274422</v>
       </c>
       <c r="M16">
-        <v>1.060295562851438</v>
+        <v>1.050912949994555</v>
       </c>
       <c r="N16">
-        <v>1.054326353591833</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.016910123376844</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.050115597674542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028344439354863</v>
+        <v>1.013742614062016</v>
       </c>
       <c r="D17">
-        <v>1.045370285870646</v>
+        <v>1.032564566566371</v>
       </c>
       <c r="E17">
-        <v>1.040325834369994</v>
+        <v>1.028721828181355</v>
       </c>
       <c r="F17">
-        <v>1.049133400891349</v>
+        <v>1.038198526599058</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057037332368135</v>
+        <v>1.050519581068439</v>
       </c>
       <c r="J17">
-        <v>1.05475533028488</v>
+        <v>1.040682738361442</v>
       </c>
       <c r="K17">
-        <v>1.058626975028472</v>
+        <v>1.046024736411583</v>
       </c>
       <c r="L17">
-        <v>1.053661913178962</v>
+        <v>1.042244328073337</v>
       </c>
       <c r="M17">
-        <v>1.062331501272423</v>
+        <v>1.051568381351765</v>
       </c>
       <c r="N17">
-        <v>1.056253203836013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.017154192301629</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.050505573733078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029886806194529</v>
+        <v>1.014384196045991</v>
       </c>
       <c r="D18">
-        <v>1.046599916282832</v>
+        <v>1.032923942073923</v>
       </c>
       <c r="E18">
-        <v>1.04163227286698</v>
+        <v>1.029111190888508</v>
       </c>
       <c r="F18">
-        <v>1.05050721297978</v>
+        <v>1.038441589192588</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057618947852738</v>
+        <v>1.050594396520602</v>
       </c>
       <c r="J18">
-        <v>1.055866405574563</v>
+        <v>1.040914587277412</v>
       </c>
       <c r="K18">
-        <v>1.059659994791705</v>
+        <v>1.046197575957514</v>
       </c>
       <c r="L18">
-        <v>1.054769094206898</v>
+        <v>1.042445659717428</v>
       </c>
       <c r="M18">
-        <v>1.063507579554748</v>
+        <v>1.051628197211573</v>
       </c>
       <c r="N18">
-        <v>1.057365856980049</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.017193275184913</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.050317141699932</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030410187497782</v>
+        <v>1.014250919948411</v>
       </c>
       <c r="D19">
-        <v>1.047017268441593</v>
+        <v>1.032698529764432</v>
       </c>
       <c r="E19">
-        <v>1.042075735661619</v>
+        <v>1.028858308717877</v>
       </c>
       <c r="F19">
-        <v>1.050973551188202</v>
+        <v>1.038018326489178</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05781613659521</v>
+        <v>1.05041380471974</v>
       </c>
       <c r="J19">
-        <v>1.056243383780057</v>
+        <v>1.04065460208733</v>
       </c>
       <c r="K19">
-        <v>1.060010478880562</v>
+        <v>1.045914094785642</v>
       </c>
       <c r="L19">
-        <v>1.055144800999952</v>
+        <v>1.042134857173826</v>
       </c>
       <c r="M19">
-        <v>1.063906685763185</v>
+        <v>1.051150365243085</v>
       </c>
       <c r="N19">
-        <v>1.057743370537835</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.017051989521514</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.049616869775688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028059521722561</v>
+        <v>1.011967636692598</v>
       </c>
       <c r="D20">
-        <v>1.045143184698158</v>
+        <v>1.030861372535755</v>
       </c>
       <c r="E20">
-        <v>1.04008456692177</v>
+        <v>1.026837196168529</v>
       </c>
       <c r="F20">
-        <v>1.048879693930284</v>
+        <v>1.035783981182126</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056929809144979</v>
+        <v>1.049535513717275</v>
       </c>
       <c r="J20">
-        <v>1.054550060651402</v>
+        <v>1.039044895386523</v>
       </c>
       <c r="K20">
-        <v>1.058436121120111</v>
+        <v>1.044382432921549</v>
       </c>
       <c r="L20">
-        <v>1.053457386866054</v>
+        <v>1.040424008420565</v>
       </c>
       <c r="M20">
-        <v>1.062114257346174</v>
+        <v>1.04922550122138</v>
       </c>
       <c r="N20">
-        <v>1.05604764269611</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.016417194902168</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.04757148042545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020234790681982</v>
+        <v>1.006912945702815</v>
       </c>
       <c r="D21">
-        <v>1.038911957857689</v>
+        <v>1.027262541382688</v>
       </c>
       <c r="E21">
-        <v>1.033466878398615</v>
+        <v>1.022910230908358</v>
       </c>
       <c r="F21">
-        <v>1.041921108998698</v>
+        <v>1.032029466885015</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053967389741693</v>
+        <v>1.048077480051731</v>
       </c>
       <c r="J21">
-        <v>1.048910205691497</v>
+        <v>1.036124456106089</v>
       </c>
       <c r="K21">
-        <v>1.053191818071735</v>
+        <v>1.041745191580603</v>
       </c>
       <c r="L21">
-        <v>1.047840788506564</v>
+        <v>1.037470183898643</v>
       </c>
       <c r="M21">
-        <v>1.056149538400953</v>
+        <v>1.046428419038691</v>
       </c>
       <c r="N21">
-        <v>1.050399778495261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.015398975267913</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.045317354051692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015165837936294</v>
+        <v>1.003708033418371</v>
       </c>
       <c r="D22">
-        <v>1.034881351180859</v>
+        <v>1.024996948354514</v>
       </c>
       <c r="E22">
-        <v>1.029188413737873</v>
+        <v>1.020441051533087</v>
       </c>
       <c r="F22">
-        <v>1.037422522436614</v>
+        <v>1.029685936627788</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052039317299155</v>
+        <v>1.047156805560545</v>
       </c>
       <c r="J22">
-        <v>1.045254524015223</v>
+        <v>1.034286335391572</v>
       </c>
       <c r="K22">
-        <v>1.049792087768733</v>
+        <v>1.040088959564711</v>
       </c>
       <c r="L22">
-        <v>1.044203001829032</v>
+        <v>1.035618159660005</v>
       </c>
       <c r="M22">
-        <v>1.052287380720414</v>
+        <v>1.044691389178133</v>
       </c>
       <c r="N22">
-        <v>1.046738905331694</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.01476153926942</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.043942619198981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017867766794874</v>
+        <v>1.005413395449927</v>
       </c>
       <c r="D23">
-        <v>1.037029197654654</v>
+        <v>1.026201967311565</v>
       </c>
       <c r="E23">
-        <v>1.031468145180379</v>
+        <v>1.021754161063595</v>
       </c>
       <c r="F23">
-        <v>1.039819519379306</v>
+        <v>1.030932086997879</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053067868302866</v>
+        <v>1.047647421775707</v>
       </c>
       <c r="J23">
-        <v>1.047203303217643</v>
+        <v>1.035264549975898</v>
       </c>
       <c r="K23">
-        <v>1.051604459561613</v>
+        <v>1.040970414439342</v>
       </c>
       <c r="L23">
-        <v>1.046141972623646</v>
+        <v>1.036603513094452</v>
       </c>
       <c r="M23">
-        <v>1.054345839389621</v>
+        <v>1.045615488643927</v>
       </c>
       <c r="N23">
-        <v>1.04869045202411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.015100792817785</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.044673978129725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028188310553741</v>
+        <v>1.01198894899445</v>
       </c>
       <c r="D24">
-        <v>1.045245837496718</v>
+        <v>1.030859348437657</v>
       </c>
       <c r="E24">
-        <v>1.040193622324755</v>
+        <v>1.026833587429516</v>
       </c>
       <c r="F24">
-        <v>1.048994372018233</v>
+        <v>1.035755492751156</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056978415093641</v>
+        <v>1.049523233658663</v>
       </c>
       <c r="J24">
-        <v>1.054642847777562</v>
+        <v>1.039033178768986</v>
       </c>
       <c r="K24">
-        <v>1.058522392155614</v>
+        <v>1.044365377749458</v>
       </c>
       <c r="L24">
-        <v>1.053549837075152</v>
+        <v>1.040405310855191</v>
       </c>
       <c r="M24">
-        <v>1.062212455817532</v>
+        <v>1.049182507373182</v>
       </c>
       <c r="N24">
-        <v>1.056140561590632</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.016407284982003</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.047497012641721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039573697164243</v>
+        <v>1.019351899531235</v>
       </c>
       <c r="D25">
-        <v>1.054331840107326</v>
+        <v>1.036094803092393</v>
       </c>
       <c r="E25">
-        <v>1.04985153672628</v>
+        <v>1.032552616805954</v>
       </c>
       <c r="F25">
-        <v>1.059150990514278</v>
+        <v>1.041192100105216</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.06125316998783</v>
+        <v>1.051589668892841</v>
       </c>
       <c r="J25">
-        <v>1.062838895571431</v>
+        <v>1.043245096542021</v>
       </c>
       <c r="K25">
-        <v>1.066141457250976</v>
+        <v>1.048157490860184</v>
       </c>
       <c r="L25">
-        <v>1.061722299509092</v>
+        <v>1.044665770680504</v>
       </c>
       <c r="M25">
-        <v>1.070895563271246</v>
+        <v>1.053182926871537</v>
       </c>
       <c r="N25">
-        <v>1.064348248712468</v>
+        <v>1.017866248919956</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.050663039355022</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02502603947546</v>
+        <v>1.023215519298044</v>
       </c>
       <c r="D2">
-        <v>1.040143686426517</v>
+        <v>1.037667049023818</v>
       </c>
       <c r="E2">
-        <v>1.036983187412831</v>
+        <v>1.035385672612079</v>
       </c>
       <c r="F2">
-        <v>1.045408288990649</v>
+        <v>1.043677772227949</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.0531534893123</v>
+        <v>1.051998961674487</v>
       </c>
       <c r="J2">
-        <v>1.04648314955922</v>
+        <v>1.044723356829221</v>
       </c>
       <c r="K2">
-        <v>1.051070712022066</v>
+        <v>1.048625425981323</v>
       </c>
       <c r="L2">
-        <v>1.04795025421619</v>
+        <v>1.046373094957087</v>
       </c>
       <c r="M2">
-        <v>1.056269285816818</v>
+        <v>1.054560381615172</v>
       </c>
       <c r="N2">
-        <v>1.018986736054568</v>
+        <v>1.018780624941912</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.053105647735732</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.051753186544667</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024823814490128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,93 +495,111 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029038722746829</v>
+        <v>1.026999080024832</v>
       </c>
       <c r="D3">
-        <v>1.043014313174088</v>
+        <v>1.040265629774898</v>
       </c>
       <c r="E3">
-        <v>1.040129077770302</v>
+        <v>1.038327115963151</v>
       </c>
       <c r="F3">
-        <v>1.04840439243265</v>
+        <v>1.046471287438885</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054242144041036</v>
+        <v>1.052944868274897</v>
       </c>
       <c r="J3">
-        <v>1.048767892271885</v>
+        <v>1.04677983726072</v>
       </c>
       <c r="K3">
-        <v>1.053124881545727</v>
+        <v>1.050407977210591</v>
       </c>
       <c r="L3">
-        <v>1.05027300937263</v>
+        <v>1.04849200073865</v>
       </c>
       <c r="M3">
-        <v>1.058453239827245</v>
+        <v>1.05654218029336</v>
       </c>
       <c r="N3">
-        <v>1.019776596606352</v>
+        <v>1.019343766018806</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.054834069382157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.053321621693927</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02520795575342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.031587998983316</v>
+        <v>1.029404466098268</v>
       </c>
       <c r="D4">
-        <v>1.044841121229853</v>
+        <v>1.041920765236586</v>
       </c>
       <c r="E4">
-        <v>1.042133271917673</v>
+        <v>1.040202752208106</v>
       </c>
       <c r="F4">
-        <v>1.050314248882575</v>
+        <v>1.048253584530709</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054925560936372</v>
+        <v>1.053538181614772</v>
       </c>
       <c r="J4">
-        <v>1.050216797925773</v>
+        <v>1.048084780393656</v>
       </c>
       <c r="K4">
-        <v>1.054426876762599</v>
+        <v>1.051538259424556</v>
       </c>
       <c r="L4">
-        <v>1.051748449201325</v>
+        <v>1.049839020125826</v>
       </c>
       <c r="M4">
-        <v>1.059841104345349</v>
+        <v>1.057802527745306</v>
       </c>
       <c r="N4">
-        <v>1.020277125805404</v>
+        <v>1.019700925874679</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.055932449015719</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.054319084203292</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025449003274991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032648756788658</v>
+        <v>1.030405729118081</v>
       </c>
       <c r="D5">
-        <v>1.04560195694945</v>
+        <v>1.042610432757162</v>
       </c>
       <c r="E5">
-        <v>1.042968526320645</v>
+        <v>1.040984817810992</v>
       </c>
       <c r="F5">
-        <v>1.051110443734359</v>
+        <v>1.048996963302761</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055207929180047</v>
+        <v>1.053783192484615</v>
       </c>
       <c r="J5">
-        <v>1.050819035142112</v>
+        <v>1.048627356583555</v>
       </c>
       <c r="K5">
-        <v>1.054967877695573</v>
+        <v>1.052008004953658</v>
       </c>
       <c r="L5">
-        <v>1.052362298046883</v>
+        <v>1.050399683013937</v>
       </c>
       <c r="M5">
-        <v>1.060418658258585</v>
+        <v>1.058327230835944</v>
       </c>
       <c r="N5">
-        <v>1.020485076835641</v>
+        <v>1.019849381522508</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.056389534559326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.054734343640216</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025548569823663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032826229773809</v>
+        <v>1.030573269738421</v>
       </c>
       <c r="D6">
-        <v>1.045729290471688</v>
+        <v>1.042725874493556</v>
       </c>
       <c r="E6">
-        <v>1.043108346574692</v>
+        <v>1.041115756649551</v>
       </c>
       <c r="F6">
-        <v>1.051243740374873</v>
+        <v>1.049121438399666</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055255052925087</v>
+        <v>1.053824073822876</v>
       </c>
       <c r="J6">
-        <v>1.050919754734605</v>
+        <v>1.048718108344289</v>
       </c>
       <c r="K6">
-        <v>1.055058345592351</v>
+        <v>1.052086562465668</v>
       </c>
       <c r="L6">
-        <v>1.05246499386064</v>
+        <v>1.050493494799849</v>
       </c>
       <c r="M6">
-        <v>1.060515290188874</v>
+        <v>1.058415032433064</v>
       </c>
       <c r="N6">
-        <v>1.020519849427484</v>
+        <v>1.019874209556501</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05646601061105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.054803831376769</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025565184548251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031602215495652</v>
+        <v>1.029427267769681</v>
       </c>
       <c r="D7">
-        <v>1.044851315418331</v>
+        <v>1.041937411432839</v>
       </c>
       <c r="E7">
-        <v>1.042144461073337</v>
+        <v>1.04022132807545</v>
       </c>
       <c r="F7">
-        <v>1.05032491378913</v>
+        <v>1.048270369070739</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054929353248134</v>
+        <v>1.053546339782726</v>
       </c>
       <c r="J7">
-        <v>1.050224871867592</v>
+        <v>1.048101215856523</v>
       </c>
       <c r="K7">
-        <v>1.054434130428773</v>
+        <v>1.051551883456025</v>
       </c>
       <c r="L7">
-        <v>1.051756676513164</v>
+        <v>1.049854545728658</v>
       </c>
       <c r="M7">
-        <v>1.059848844650779</v>
+        <v>1.057816314078014</v>
       </c>
       <c r="N7">
-        <v>1.020279914093697</v>
+        <v>1.019731505512913</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.055938574820912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.054329994957176</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025452716769631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026392127477961</v>
+        <v>1.024532229146808</v>
       </c>
       <c r="D8">
-        <v>1.041120297588938</v>
+        <v>1.03857377648972</v>
       </c>
       <c r="E8">
-        <v>1.038052988077745</v>
+        <v>1.036410676424382</v>
       </c>
       <c r="F8">
-        <v>1.046426921803689</v>
+        <v>1.044648352196696</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053525812696795</v>
+        <v>1.052337679212278</v>
       </c>
       <c r="J8">
-        <v>1.047261499170384</v>
+        <v>1.045451971398507</v>
       </c>
       <c r="K8">
-        <v>1.051770651268897</v>
+        <v>1.049255412078131</v>
       </c>
       <c r="L8">
-        <v>1.048741044647941</v>
+        <v>1.047119034246019</v>
       </c>
       <c r="M8">
-        <v>1.057012695582783</v>
+        <v>1.055255679773847</v>
       </c>
       <c r="N8">
-        <v>1.019255895722635</v>
+        <v>1.019059577604781</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.053693996434335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.052303459799399</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024962644010582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016833722723746</v>
+        <v>1.015534728478265</v>
       </c>
       <c r="D9">
-        <v>1.034301862487156</v>
+        <v>1.032414321049974</v>
       </c>
       <c r="E9">
-        <v>1.030592883686643</v>
+        <v>1.029449811523149</v>
       </c>
       <c r="F9">
-        <v>1.03932843372554</v>
+        <v>1.038042991249653</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.0508873526734</v>
+        <v>1.050045313013575</v>
       </c>
       <c r="J9">
-        <v>1.041805729054495</v>
+        <v>1.040550594546231</v>
       </c>
       <c r="K9">
-        <v>1.046861893432919</v>
+        <v>1.045002512287171</v>
       </c>
       <c r="L9">
-        <v>1.043208373485727</v>
+        <v>1.042082495787066</v>
       </c>
       <c r="M9">
-        <v>1.051814106600553</v>
+        <v>1.050547592623476</v>
       </c>
       <c r="N9">
-        <v>1.017367835259467</v>
+        <v>1.017726281291863</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.049579724097753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.048577374947495</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024032485563558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010262171018677</v>
+        <v>1.009396817659897</v>
       </c>
       <c r="D10">
-        <v>1.029656442735153</v>
+        <v>1.028257704676639</v>
       </c>
       <c r="E10">
-        <v>1.025522767328397</v>
+        <v>1.024763016479462</v>
       </c>
       <c r="F10">
-        <v>1.034541871299842</v>
+        <v>1.033629459574471</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049056446548617</v>
+        <v>1.048474720447903</v>
       </c>
       <c r="J10">
-        <v>1.038074465811088</v>
+        <v>1.037242509131202</v>
       </c>
       <c r="K10">
-        <v>1.04351011927913</v>
+        <v>1.04213483665267</v>
       </c>
       <c r="L10">
-        <v>1.039445999991553</v>
+        <v>1.038699112031489</v>
       </c>
       <c r="M10">
-        <v>1.048314264600437</v>
+        <v>1.04741695836593</v>
       </c>
       <c r="N10">
-        <v>1.016082494526074</v>
+        <v>1.016943046063603</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.046860783425601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.046150674977494</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023402579202684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.007986731323057</v>
+        <v>1.007294646735612</v>
       </c>
       <c r="D11">
-        <v>1.028231868885493</v>
+        <v>1.02701059120287</v>
       </c>
       <c r="E11">
-        <v>1.02398247953932</v>
+        <v>1.023371317949064</v>
       </c>
       <c r="F11">
-        <v>1.03334150322721</v>
+        <v>1.032570790321099</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048607355889442</v>
+        <v>1.048121112168666</v>
       </c>
       <c r="J11">
-        <v>1.03703098651701</v>
+        <v>1.036367077363019</v>
       </c>
       <c r="K11">
-        <v>1.042640314822231</v>
+        <v>1.041440492040212</v>
       </c>
       <c r="L11">
-        <v>1.038465863392796</v>
+        <v>1.037865546051561</v>
       </c>
       <c r="M11">
-        <v>1.047660896790468</v>
+        <v>1.04690354307444</v>
       </c>
       <c r="N11">
-        <v>1.015788319036287</v>
+        <v>1.016980385103911</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04677579234562</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.046176735001065</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023305716312005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007387484961914</v>
+        <v>1.006729365598715</v>
       </c>
       <c r="D12">
-        <v>1.027947843662647</v>
+        <v>1.026758539010904</v>
       </c>
       <c r="E12">
-        <v>1.023680475073164</v>
+        <v>1.023095719999993</v>
       </c>
       <c r="F12">
-        <v>1.033242278373528</v>
+        <v>1.032497796767435</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04858639405332</v>
+        <v>1.048115186678072</v>
       </c>
       <c r="J12">
-        <v>1.036882450806215</v>
+        <v>1.036251632093693</v>
       </c>
       <c r="K12">
-        <v>1.042558504343129</v>
+        <v>1.041390436813266</v>
       </c>
       <c r="L12">
-        <v>1.03836763493249</v>
+        <v>1.037793427129218</v>
       </c>
       <c r="M12">
-        <v>1.047759166627946</v>
+        <v>1.047027795578792</v>
       </c>
       <c r="N12">
-        <v>1.015791614317517</v>
+        <v>1.017088407502473</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04717709289095</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.04659878004642</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023337192642189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008040457958374</v>
+        <v>1.007297420014263</v>
       </c>
       <c r="D13">
-        <v>1.028524428998181</v>
+        <v>1.027246146354034</v>
       </c>
       <c r="E13">
-        <v>1.024313338716694</v>
+        <v>1.023651064543108</v>
       </c>
       <c r="F13">
-        <v>1.033993010210296</v>
+        <v>1.033177677613698</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048898194019934</v>
+        <v>1.048374242138588</v>
       </c>
       <c r="J13">
-        <v>1.037416995041019</v>
+        <v>1.036704615008102</v>
       </c>
       <c r="K13">
-        <v>1.043082546145456</v>
+        <v>1.041826982819366</v>
       </c>
       <c r="L13">
-        <v>1.038946579278356</v>
+        <v>1.038296192775584</v>
       </c>
       <c r="M13">
-        <v>1.048454754126417</v>
+        <v>1.047653706346392</v>
       </c>
       <c r="N13">
-        <v>1.016025176857804</v>
+        <v>1.017221509362722</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.048001602126631</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.047368351048056</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023468328301059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.009062564379652</v>
+        <v>1.008207536669293</v>
       </c>
       <c r="D14">
-        <v>1.029315722885742</v>
+        <v>1.027921684420044</v>
       </c>
       <c r="E14">
-        <v>1.025177445537939</v>
+        <v>1.024415227392679</v>
       </c>
       <c r="F14">
-        <v>1.03490151614576</v>
+        <v>1.03399379750606</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049265566374898</v>
+        <v>1.048674988700369</v>
       </c>
       <c r="J14">
-        <v>1.038098252959275</v>
+        <v>1.037277986435715</v>
       </c>
       <c r="K14">
-        <v>1.043721456194857</v>
+        <v>1.04235187792552</v>
       </c>
       <c r="L14">
-        <v>1.039656042358879</v>
+        <v>1.038907328039881</v>
       </c>
       <c r="M14">
-        <v>1.049210094557773</v>
+        <v>1.048318071645459</v>
       </c>
       <c r="N14">
-        <v>1.016291921092475</v>
+        <v>1.017326900497808</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048770813907817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.048065738444511</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02360503939748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009586691168042</v>
+        <v>1.008679334760311</v>
       </c>
       <c r="D15">
-        <v>1.029700039834749</v>
+        <v>1.028252073808363</v>
       </c>
       <c r="E15">
-        <v>1.025596699703408</v>
+        <v>1.024788336291781</v>
       </c>
       <c r="F15">
-        <v>1.035317769893496</v>
+        <v>1.034367056521643</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049430032657232</v>
+        <v>1.048809003295972</v>
       </c>
       <c r="J15">
-        <v>1.038417309790385</v>
+        <v>1.037546515806252</v>
       </c>
       <c r="K15">
-        <v>1.044013838849908</v>
+        <v>1.04259108360032</v>
       </c>
       <c r="L15">
-        <v>1.039982182369562</v>
+        <v>1.039188028466224</v>
       </c>
       <c r="M15">
-        <v>1.049534620343183</v>
+        <v>1.048600218313974</v>
       </c>
       <c r="N15">
-        <v>1.01640861533059</v>
+        <v>1.01736239964713</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.049064618436692</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.048326064774926</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023661809538483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012241430565834</v>
+        <v>1.011102975275352</v>
       </c>
       <c r="D16">
-        <v>1.031555701479946</v>
+        <v>1.029867408692661</v>
       </c>
       <c r="E16">
-        <v>1.027621312190059</v>
+        <v>1.02661140100567</v>
       </c>
       <c r="F16">
-        <v>1.037219491904083</v>
+        <v>1.036078495467819</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050157117391496</v>
+        <v>1.049403912136512</v>
       </c>
       <c r="J16">
-        <v>1.039902383219838</v>
+        <v>1.038807499390498</v>
       </c>
       <c r="K16">
-        <v>1.045342584742723</v>
+        <v>1.043682396749881</v>
       </c>
       <c r="L16">
-        <v>1.041473875274422</v>
+        <v>1.040480928026826</v>
       </c>
       <c r="M16">
-        <v>1.050912949994555</v>
+        <v>1.049790668825706</v>
       </c>
       <c r="N16">
-        <v>1.016910123376844</v>
+        <v>1.017490635342118</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.050115597674542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.049228518638038</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023893189681887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013742614062016</v>
+        <v>1.012496529956841</v>
       </c>
       <c r="D17">
-        <v>1.032564566566371</v>
+        <v>1.030761088735227</v>
       </c>
       <c r="E17">
-        <v>1.028721828181355</v>
+        <v>1.027618782917615</v>
       </c>
       <c r="F17">
-        <v>1.038198526599058</v>
+        <v>1.036967736572025</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050519581068439</v>
+        <v>1.049705157621279</v>
       </c>
       <c r="J17">
-        <v>1.040682738361442</v>
+        <v>1.039482812702826</v>
       </c>
       <c r="K17">
-        <v>1.046024736411583</v>
+        <v>1.044250437063149</v>
       </c>
       <c r="L17">
-        <v>1.042244328073337</v>
+        <v>1.041159285115473</v>
       </c>
       <c r="M17">
-        <v>1.051568381351765</v>
+        <v>1.050357214088837</v>
       </c>
       <c r="N17">
-        <v>1.017154192301629</v>
+        <v>1.017563026510733</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.050505573733078</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.04954814256177</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024000142056524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014384196045991</v>
+        <v>1.013113932487788</v>
       </c>
       <c r="D18">
-        <v>1.032923942073923</v>
+        <v>1.031092695777141</v>
       </c>
       <c r="E18">
-        <v>1.029111190888508</v>
+        <v>1.027988752110966</v>
       </c>
       <c r="F18">
-        <v>1.038441589192588</v>
+        <v>1.037190000181907</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050594396520602</v>
+        <v>1.049767797674624</v>
       </c>
       <c r="J18">
-        <v>1.040914587277412</v>
+        <v>1.039690504559449</v>
       </c>
       <c r="K18">
-        <v>1.046197575957514</v>
+        <v>1.04439547642627</v>
       </c>
       <c r="L18">
-        <v>1.042445659717428</v>
+        <v>1.041341240482738</v>
       </c>
       <c r="M18">
-        <v>1.051628197211573</v>
+        <v>1.050396244721924</v>
       </c>
       <c r="N18">
-        <v>1.017193275184913</v>
+        <v>1.017550546753479</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.050317141699932</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.049343079749039</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024002047821371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014250919948411</v>
+        <v>1.013022952784778</v>
       </c>
       <c r="D19">
-        <v>1.032698529764432</v>
+        <v>1.030911328972525</v>
       </c>
       <c r="E19">
-        <v>1.028858308717877</v>
+        <v>1.027775399293508</v>
       </c>
       <c r="F19">
-        <v>1.038018326489178</v>
+        <v>1.036801767811541</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05041380471974</v>
+        <v>1.049614661345426</v>
       </c>
       <c r="J19">
-        <v>1.04065460208733</v>
+        <v>1.039471031756459</v>
       </c>
       <c r="K19">
-        <v>1.045914094785642</v>
+        <v>1.044155202677645</v>
       </c>
       <c r="L19">
-        <v>1.042134857173826</v>
+        <v>1.041069250168579</v>
       </c>
       <c r="M19">
-        <v>1.051150365243085</v>
+        <v>1.049952811109079</v>
       </c>
       <c r="N19">
-        <v>1.017051989521514</v>
+        <v>1.017443737741184</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.049616869775688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.048669701483808</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02390949497711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011967636692598</v>
+        <v>1.010962209253454</v>
       </c>
       <c r="D20">
-        <v>1.030861372535755</v>
+        <v>1.02931377892085</v>
       </c>
       <c r="E20">
-        <v>1.026837196168529</v>
+        <v>1.025954086883984</v>
       </c>
       <c r="F20">
-        <v>1.035783981182126</v>
+        <v>1.03475455120616</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049535513717275</v>
+        <v>1.048871845202577</v>
       </c>
       <c r="J20">
-        <v>1.039044895386523</v>
+        <v>1.038076999707515</v>
       </c>
       <c r="K20">
-        <v>1.044382432921549</v>
+        <v>1.042860047580042</v>
       </c>
       <c r="L20">
-        <v>1.040424008420565</v>
+        <v>1.039555417221705</v>
       </c>
       <c r="M20">
-        <v>1.04922550122138</v>
+        <v>1.048212624650091</v>
       </c>
       <c r="N20">
-        <v>1.016417194902168</v>
+        <v>1.017071025666275</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.04757148042545</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.046769902794796</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023560670511796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.006912945702815</v>
+        <v>1.00638379850671</v>
       </c>
       <c r="D21">
-        <v>1.027262541382688</v>
+        <v>1.026207268937722</v>
       </c>
       <c r="E21">
-        <v>1.022910230908358</v>
+        <v>1.022446855355724</v>
       </c>
       <c r="F21">
-        <v>1.032029466885015</v>
+        <v>1.031392891653194</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048077480051731</v>
+        <v>1.047690305234089</v>
       </c>
       <c r="J21">
-        <v>1.036124456106089</v>
+        <v>1.035617019379741</v>
       </c>
       <c r="K21">
-        <v>1.041745191580603</v>
+        <v>1.040708584054836</v>
       </c>
       <c r="L21">
-        <v>1.037470183898643</v>
+        <v>1.037015088848511</v>
       </c>
       <c r="M21">
-        <v>1.046428419038691</v>
+        <v>1.045802962867751</v>
       </c>
       <c r="N21">
-        <v>1.015398975267913</v>
+        <v>1.016816640590081</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.045317354051692</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.044822350540362</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023086377480867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.003708033418371</v>
+        <v>1.003480540786755</v>
       </c>
       <c r="D22">
-        <v>1.024996948354514</v>
+        <v>1.02425352447454</v>
       </c>
       <c r="E22">
-        <v>1.020441051533087</v>
+        <v>1.020243587364954</v>
       </c>
       <c r="F22">
-        <v>1.029685936627788</v>
+        <v>1.029298384051382</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047156805560545</v>
+        <v>1.046944749758117</v>
       </c>
       <c r="J22">
-        <v>1.034286335391572</v>
+        <v>1.034068725782316</v>
       </c>
       <c r="K22">
-        <v>1.040088959564711</v>
+        <v>1.039359354234881</v>
       </c>
       <c r="L22">
-        <v>1.035618159660005</v>
+        <v>1.035424406252949</v>
       </c>
       <c r="M22">
-        <v>1.044691389178133</v>
+        <v>1.044310951871605</v>
       </c>
       <c r="N22">
-        <v>1.01476153926942</v>
+        <v>1.016655178240625</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.043942619198981</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.043641529945387</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022790182345909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005413395449927</v>
+        <v>1.005009562778279</v>
       </c>
       <c r="D23">
-        <v>1.026201967311565</v>
+        <v>1.025279674379275</v>
       </c>
       <c r="E23">
-        <v>1.021754161063595</v>
+        <v>1.021401253604026</v>
       </c>
       <c r="F23">
-        <v>1.030932086997879</v>
+        <v>1.03040020714872</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047647421775707</v>
+        <v>1.047333594451284</v>
       </c>
       <c r="J23">
-        <v>1.035264549975898</v>
+        <v>1.034877741065745</v>
       </c>
       <c r="K23">
-        <v>1.040970414439342</v>
+        <v>1.040064822839265</v>
       </c>
       <c r="L23">
-        <v>1.036603513094452</v>
+        <v>1.036257064255169</v>
       </c>
       <c r="M23">
-        <v>1.045615488643927</v>
+        <v>1.045093121158048</v>
       </c>
       <c r="N23">
-        <v>1.015100792817785</v>
+        <v>1.016697119318801</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044673978129725</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.044260561547457</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022943643557374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01198894899445</v>
+        <v>1.010985557082534</v>
       </c>
       <c r="D24">
-        <v>1.030859348437657</v>
+        <v>1.029313868786887</v>
       </c>
       <c r="E24">
-        <v>1.026833587429516</v>
+        <v>1.025952555297557</v>
       </c>
       <c r="F24">
-        <v>1.035755492751156</v>
+        <v>1.034727759237891</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049523233658663</v>
+        <v>1.048861090205635</v>
       </c>
       <c r="J24">
-        <v>1.039033178768986</v>
+        <v>1.038067187868857</v>
       </c>
       <c r="K24">
-        <v>1.044365377749458</v>
+        <v>1.042845039821912</v>
       </c>
       <c r="L24">
-        <v>1.040405310855191</v>
+        <v>1.039538744221296</v>
       </c>
       <c r="M24">
-        <v>1.049182507373182</v>
+        <v>1.048171280023346</v>
       </c>
       <c r="N24">
-        <v>1.016407284982003</v>
+        <v>1.017060326569514</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.047497012641721</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.046696701232507</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02355241991429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019351899531235</v>
+        <v>1.017891800656716</v>
       </c>
       <c r="D25">
-        <v>1.036094803092393</v>
+        <v>1.034023256954319</v>
       </c>
       <c r="E25">
-        <v>1.032552616805954</v>
+        <v>1.03126663366337</v>
       </c>
       <c r="F25">
-        <v>1.041192100105216</v>
+        <v>1.039767092204432</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051589668892841</v>
+        <v>1.050649811069336</v>
       </c>
       <c r="J25">
-        <v>1.043245096542021</v>
+        <v>1.04183168090525</v>
       </c>
       <c r="K25">
-        <v>1.048157490860184</v>
+        <v>1.046115405266908</v>
       </c>
       <c r="L25">
-        <v>1.044665770680504</v>
+        <v>1.043398217762947</v>
       </c>
       <c r="M25">
-        <v>1.053182926871537</v>
+        <v>1.051777918904445</v>
       </c>
       <c r="N25">
-        <v>1.017866248919956</v>
+        <v>1.018044112838462</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.050663039355022</v>
+        <v>1.049551084316934</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024277153899974</v>
       </c>
     </row>
   </sheetData>
